--- a/Input_Output/2026/2027_SAT.xlsx
+++ b/Input_Output/2026/2027_SAT.xlsx
@@ -2484,37 +2484,37 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>3</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>4</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -5688,7 +5688,7 @@
         <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>-0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL26" t="n">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -10153,7 +10153,7 @@
         <v>-0</v>
       </c>
       <c r="AK45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" t="n">
         <v>0</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -10618,13 +10618,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -10794,13 +10794,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -10906,13 +10906,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -10922,13 +10922,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AB: 40.0</t>
+          <t>IS: 40.0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -11316,13 +11316,13 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Aut1: 20.0</t>
+          <t>ML: 20.0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>EB: 40.0</t>
+          <t>FR: 40.0</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -11340,7 +11340,7 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>KT: 30.0</t>
+          <t>EB: 30.0</t>
         </is>
       </c>
     </row>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mec2: 72.0</t>
+          <t>NH: 72.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -11379,13 +11379,13 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>PL: 42.0</t>
+          <t>NP: 42.0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>SD: 78.0</t>
+          <t>KC: 78.0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -11411,13 +11411,13 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>BS: 48.0</t>
+          <t>SW: 48.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>JZ: 42.0</t>
+          <t>GAW: 42.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
@@ -11435,23 +11435,23 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>KT: 242.0, Mec3: 10.0</t>
+          <t>KT: 242.0, FR: 10.0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>GAW: 72.0</t>
+          <t>Mec1: 72.0</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Aut1: 72.0</t>
+          <t>ML: 72.0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>ML: 74.0, HN: 10.0</t>
+          <t>HN: 10.0, Aut1: 74.0</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>KT: 84.0</t>
+          <t>EB: 84.0</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>MV: 62.0, ALL: 10.0</t>
+          <t>MV: 10.0, ALL: 62.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>BS: 20.0, NH: 132.0, IK: 10.0</t>
+          <t>BS: 10.0, NH: 132.0, IK: 20.0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -11554,7 +11554,7 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>JZ: 10.0, GAW: 74.0</t>
+          <t>JZ: 74.0, GAW: 10.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -11577,7 +11577,7 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>GAW: 20.0, Mec1: 10.0</t>
+          <t>GAW: 10.0, Mec1: 20.0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr"/>
@@ -11598,7 +11598,7 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>KT: 36.0</t>
+          <t>EB: 36.0</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NP: 412.0, KEK: 10.0, NH: 10.0</t>
+          <t>NP: 20.0, KEK: 392.0, NH: 20.0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -11657,7 +11657,7 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>SW: 50.0, BS: 10.0</t>
+          <t>SW: 10.0, BS: 50.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
@@ -11667,7 +11667,7 @@
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>LK: 28.0, WL: 10.0, FR: 10.0</t>
+          <t>LK: 38.0, FR: 10.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr"/>
@@ -11679,13 +11679,13 @@
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Aut1: 37.0</t>
+          <t>ML: 37.0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>EB: 10.0, ML: 10.0, AS: 20.0, Aut1: 122.0</t>
+          <t>ML: 142.0, AS: 10.0, Aut1: 10.0</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr"/>
@@ -11727,14 +11727,14 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NP: 412.0, KEK: 10.0, NH: 10.0</t>
+          <t>NP: 20.0, KEK: 392.0, NH: 20.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>NP: 10.0, PL: 14.0</t>
+          <t>NP: 14.0, PL: 10.0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -11752,7 +11752,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>LK: 124.0, WL: 10.0, FR: 10.0</t>
+          <t>LK: 10.0, WL: 114.0, FR: 20.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr"/>
@@ -11774,7 +11774,7 @@
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>ZL: 26.0, MR: 10.0</t>
+          <t>ZL: 10.0, MR: 26.0</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CJH: 10.0, Mec2: 38.0</t>
+          <t>CJH: 10.0, NH: 38.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -11839,7 +11839,7 @@
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>ZL: 62.0, MR: 10.0</t>
+          <t>ZL: 10.0, MR: 62.0</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CJH: 10.0, Mec2: 43.0</t>
+          <t>CJH: 43.0, NH: 10.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -11873,7 +11873,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MV: 10.0, ALL: 70.0</t>
+          <t>MV: 70.0, ALL: 10.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>KEK: 40.0</t>
+          <t>NP: 40.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -11911,7 +11911,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>BS: 48.0</t>
+          <t>NH: 48.0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -11942,7 +11942,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>GAW: 225.0</t>
+          <t>JZ: 225.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -11972,17 +11972,17 @@
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>AL: 10.0, KT: 64.0, Mec3: 10.0</t>
+          <t>AL: 10.0, KT: 10.0, FR: 64.0</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>GAW: 10.0, Mec1: 54.0</t>
+          <t>GAW: 54.0, Mec1: 10.0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Aut1: 7.0</t>
+          <t>ML: 7.0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>EB: 8.0, ML: 8.0, HN: 12.0, FR: 8.0, AS: 8.0, Aut1: 8.0</t>
+          <t>EB: 8.0, ML: 12.0, HN: 8.0, FR: 8.0, AS: 8.0, Aut1: 8.0</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CJH: 38.0, Mec2: 10.0</t>
+          <t>CJH: 38.0, NH: 10.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12043,7 +12043,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>MA: 24.0</t>
+          <t>CJH: 24.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -12054,7 +12054,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NH: 36.0</t>
+          <t>NP: 36.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -12105,19 +12105,19 @@
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>AL: 10.0, KT: 10.0, Mec3: 34.0</t>
+          <t>AL: 10.0, KT: 34.0, FR: 10.0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>GAW: 10.0, Mec1: 26.0</t>
+          <t>GAW: 26.0, Mec1: 10.0</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>EB: 10.0, ML: 162.0, HN: 10.0, FR: 10.0, AS: 10.0, Aut1: 10.0</t>
+          <t>EB: 10.0, ML: 152.0, HN: 10.0, FR: 10.0, AS: 20.0, Aut1: 10.0</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CJH: 10.0, Mec2: 90.0</t>
+          <t>CJH: 90.0, NH: 10.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -12164,7 +12164,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CJH: 232.0, IS: 10.0, MA: 10.0, AB: 10.0</t>
+          <t>CJH: 30.0, IS: 212.0, MA: 10.0, AB: 10.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NP: 182.0, NH: 10.0</t>
+          <t>NP: 10.0, KEK: 182.0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -12185,7 +12185,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>IK: 21.0</t>
+          <t>BS: 21.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -12314,7 +12314,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>MA: 10.0, AB: 74.0</t>
+          <t>CJH: 74.0, IS: 10.0</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -12339,12 +12339,12 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>BS: 10.0, NH: 86.0</t>
+          <t>BS: 86.0, NH: 10.0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>IK: 80.0, ALL: 10.0</t>
+          <t>IK: 10.0, ALL: 80.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -12360,7 +12360,7 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>BS: 27.0</t>
+          <t>SW: 27.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr"/>
@@ -12384,23 +12384,23 @@
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>KT: 92.0, Mec3: 10.0</t>
+          <t>KT: 92.0, FR: 10.0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>GAW: 78.0</t>
+          <t>Mec1: 78.0</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Aut1: 33.0</t>
+          <t>ML: 33.0</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>EB: 86.0, HN: 10.0</t>
+          <t>HN: 86.0, FR: 10.0</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr"/>
@@ -12422,7 +12422,7 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>KT: 72.0</t>
+          <t>EB: 72.0</t>
         </is>
       </c>
     </row>
